--- a/inst/extdata/Hypoxia_gene.xlsx
+++ b/inst/extdata/Hypoxia_gene.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chineduanene/Documents/GitHub/Decosus/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D799B2F-6372-8845-987F-4EA01652749F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DD968D-540E-1146-ADAE-DBBE8D043299}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1460" windowWidth="28040" windowHeight="25920" xr2:uid="{8FCE1109-DAAC-814B-94E3-922DF278D54B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{8FCE1109-DAAC-814B-94E3-922DF278D54B}"/>
   </bookViews>
   <sheets>
     <sheet name="marker" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="198">
   <si>
     <t xml:space="preserve">Gene </t>
   </si>
@@ -583,6 +583,84 @@
   </si>
   <si>
     <t>Hu et al., 2009</t>
+  </si>
+  <si>
+    <t>house_keep</t>
+  </si>
+  <si>
+    <t>C1orf43</t>
+  </si>
+  <si>
+    <t>CHMP2A</t>
+  </si>
+  <si>
+    <t>EMC7</t>
+  </si>
+  <si>
+    <t>PSMB2</t>
+  </si>
+  <si>
+    <t>PSMB4</t>
+  </si>
+  <si>
+    <t>RAB7A</t>
+  </si>
+  <si>
+    <t>REEP5</t>
+  </si>
+  <si>
+    <t>SNRPD3</t>
+  </si>
+  <si>
+    <t>VCP</t>
+  </si>
+  <si>
+    <t>VPS29</t>
+  </si>
+  <si>
+    <t>RRN18S</t>
+  </si>
+  <si>
+    <t>ACTB</t>
+  </si>
+  <si>
+    <t>GAPDH</t>
+  </si>
+  <si>
+    <t>PPIA</t>
+  </si>
+  <si>
+    <t>RPL13A</t>
+  </si>
+  <si>
+    <t>RPLP0</t>
+  </si>
+  <si>
+    <t>ARBP</t>
+  </si>
+  <si>
+    <t>B2M</t>
+  </si>
+  <si>
+    <t>YWHAZ</t>
+  </si>
+  <si>
+    <t>SDHA</t>
+  </si>
+  <si>
+    <t>TFRC</t>
+  </si>
+  <si>
+    <t>GUSB</t>
+  </si>
+  <si>
+    <t>HMBS</t>
+  </si>
+  <si>
+    <t>HPRT1</t>
+  </si>
+  <si>
+    <t>TBP</t>
   </si>
 </sst>
 </file>
@@ -1008,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37852528-A989-884E-84F6-13C8D08037A1}">
-  <dimension ref="A1:P203"/>
+  <dimension ref="A1:P230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="G227" sqref="G227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2922,6 +3000,222 @@
         <v>171</v>
       </c>
     </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>173</v>
+      </c>
+      <c r="B204" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>174</v>
+      </c>
+      <c r="B205" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>175</v>
+      </c>
+      <c r="B206" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>128</v>
+      </c>
+      <c r="B207" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>176</v>
+      </c>
+      <c r="B208" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>177</v>
+      </c>
+      <c r="B209" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>178</v>
+      </c>
+      <c r="B210" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>179</v>
+      </c>
+      <c r="B211" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>180</v>
+      </c>
+      <c r="B212" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>181</v>
+      </c>
+      <c r="B213" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>182</v>
+      </c>
+      <c r="B214" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>183</v>
+      </c>
+      <c r="B215" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>184</v>
+      </c>
+      <c r="B216" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>185</v>
+      </c>
+      <c r="B217" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>23</v>
+      </c>
+      <c r="B218" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>186</v>
+      </c>
+      <c r="B219" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>187</v>
+      </c>
+      <c r="B220" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>188</v>
+      </c>
+      <c r="B221" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>189</v>
+      </c>
+      <c r="B222" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>190</v>
+      </c>
+      <c r="B223" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>191</v>
+      </c>
+      <c r="B224" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>192</v>
+      </c>
+      <c r="B225" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>193</v>
+      </c>
+      <c r="B226" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>194</v>
+      </c>
+      <c r="B227" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>195</v>
+      </c>
+      <c r="B228" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>196</v>
+      </c>
+      <c r="B229" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>197</v>
+      </c>
+      <c r="B230" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
